--- a/VisitingCardDetails.xlsx
+++ b/VisitingCardDetails.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Company </t>
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Profile</t>
   </si>
   <si>
     <t>Adress</t>
@@ -37,11 +40,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,29 +53,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -81,7 +61,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,36 +91,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,24 +128,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,14 +196,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -210,13 +206,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,163 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,21 +397,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,21 +448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -501,151 +467,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,20 +966,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="16.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
+    <col min="1" max="2" width="13.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="16.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="20.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,6 +995,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VisitingCardDetails.xlsx
+++ b/VisitingCardDetails.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Company </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>Organisation</t>
   </si>
   <si>
     <t>Name</t>
@@ -32,6 +32,216 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Dept. Of Industries,Govt. of Jharkhand</t>
+  </si>
+  <si>
+    <t>Vivek Shukla</t>
+  </si>
+  <si>
+    <t>Legal Consultant</t>
+  </si>
+  <si>
+    <t>National Law School of India University(NLSIU),Banglore Intellectual Property Rights(IPR) Projects Centre,Jharkhand Jharkhand Government Tool Room,Tatisilwai,Ranchi Jharkhand-835103</t>
+  </si>
+  <si>
+    <t>vivekshukla@nls.ac.in</t>
+  </si>
+  <si>
+    <t>AIOB</t>
+  </si>
+  <si>
+    <t>Ramesh Thupakula</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>AIOB Technosoft Private Limited H.No. MIG 88,A.P.H.B. Colony, Phase 4, Gachibowli,Hyderbad, Telangana, India 500032</t>
+  </si>
+  <si>
+    <t>ramesh@aiobtech.com</t>
+  </si>
+  <si>
+    <t>SpiceCare</t>
+  </si>
+  <si>
+    <t>Dhananjai Agarwal</t>
+  </si>
+  <si>
+    <t>Co-Founder</t>
+  </si>
+  <si>
+    <t>Spice WeCare Pvt.Ltd. 321,Udyog Vihar Phase-IV,Gurugram 122016,Haryana,India</t>
+  </si>
+  <si>
+    <t>dhananjai.agarwal@spicecare.com</t>
+  </si>
+  <si>
+    <t>Hey Bee</t>
+  </si>
+  <si>
+    <t>CA Hozefa Natalwala</t>
+  </si>
+  <si>
+    <t>Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>Early Childhood Development Pvt. Ltd. 916,Rajyash Rise,Near Vishala Hotel, Vasna, Ahemdabad-380007,Gujrat, India</t>
+  </si>
+  <si>
+    <t>finance@heybee.org</t>
+  </si>
+  <si>
+    <t>Medanta</t>
+  </si>
+  <si>
+    <t>Richa Prasad</t>
+  </si>
+  <si>
+    <t>CITY MEDICAL STORE 3rd Floor, G.E.L. Church Complex,Main Road, Ranchi-834001</t>
+  </si>
+  <si>
+    <t>richa.prasad@medanta.org</t>
+  </si>
+  <si>
+    <t>Xlri</t>
+  </si>
+  <si>
+    <t>Dr. Rajeev Roy</t>
+  </si>
+  <si>
+    <t>Professor Entrepreneurship</t>
+  </si>
+  <si>
+    <t>C.H. area,Jamsedpur</t>
+  </si>
+  <si>
+    <t>rajeevroy@xlri.ac.in</t>
+  </si>
+  <si>
+    <t>www.xceedxlri.com</t>
+  </si>
+  <si>
+    <t>NutriHealth</t>
+  </si>
+  <si>
+    <t>Dr Shikha</t>
+  </si>
+  <si>
+    <t>227,!st floor,Okhla Industrial Area,Phase 3,New Delhi</t>
+  </si>
+  <si>
+    <t>911141343500</t>
+  </si>
+  <si>
+    <t>ask@drshikha.com</t>
+  </si>
+  <si>
+    <t>www.drshikhasharma.com</t>
+  </si>
+  <si>
+    <t>Asian Health Care Fund</t>
+  </si>
+  <si>
+    <t>Pratyush</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>3,Factory Road,Adj. Safdarjung Hospital,New Dehi</t>
+  </si>
+  <si>
+    <t>pratyush.goel@asianhealthcarefund.com</t>
+  </si>
+  <si>
+    <t>www.asianhealthcarefund.com</t>
+  </si>
+  <si>
+    <t>Bloodport Healthtech</t>
+  </si>
+  <si>
+    <t>Aashi Rawat</t>
+  </si>
+  <si>
+    <t>Relationaship Manager</t>
+  </si>
+  <si>
+    <t>Aashirawat@bloodpart.in</t>
+  </si>
+  <si>
+    <t>www.bloodport.in</t>
+  </si>
+  <si>
+    <t>Digital Innovation</t>
+  </si>
+  <si>
+    <t>Vasuman Shastri</t>
+  </si>
+  <si>
+    <t>Business Development Manager</t>
+  </si>
+  <si>
+    <t>Unit no. 5,The Ruby,4th floor,29,Senapati Bapat Marg,Dadar,Mumbai</t>
+  </si>
+  <si>
+    <t>vasuman.shastri@neosofttech.com</t>
+  </si>
+  <si>
+    <t>www.neosofttech.com</t>
+  </si>
+  <si>
+    <t>Mentcom Infotech Pvt.Ltd</t>
+  </si>
+  <si>
+    <t>Avinash Kumar</t>
+  </si>
+  <si>
+    <t>Senior Manager(Business Development)</t>
+  </si>
+  <si>
+    <t>Farm no.2,Andheria Morde,Mehrauli,Delhi</t>
+  </si>
+  <si>
+    <t>avinash@mentdoc.com</t>
+  </si>
+  <si>
+    <t>www.mentdoc.in</t>
+  </si>
+  <si>
+    <t>Samford Super Speciality Hospital</t>
+  </si>
+  <si>
+    <t>Birendra Kumar Pandey</t>
+  </si>
+  <si>
+    <t>Manager Marketing</t>
+  </si>
+  <si>
+    <t>Kokar Chowk,Ranchi</t>
+  </si>
+  <si>
+    <t>marketing@samfordhospital.com</t>
+  </si>
+  <si>
+    <t>Alam Hospital&amp;Research Centre Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Seema Singh</t>
+  </si>
+  <si>
+    <t>H.R. Manager</t>
+  </si>
+  <si>
+    <t>Bariatu,Ranchi</t>
+  </si>
+  <si>
+    <t>info@alamhospital.in</t>
+  </si>
+  <si>
+    <t>www.alamhospital.in</t>
   </si>
 </sst>
 </file>
@@ -40,8 +250,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -53,6 +263,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -61,7 +287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,14 +295,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,6 +309,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -98,7 +331,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,62 +377,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +416,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,17 +610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,26 +643,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,6 +665,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,170 +699,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,17 +1180,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="16.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="20.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="36.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="28.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="63.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="53.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -999,7 +1216,301 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>9743239901</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>9440377972</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>12468229480</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>9909911983</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>6517123100</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>9406010775</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>8860890997</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>7289909101</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>8657490845</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12">
+        <v>9679106661</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <v>7992355788</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14">
+        <v>7070991111</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="vivekshukla@nls.ac.in"/>
+    <hyperlink ref="F3" r:id="rId2" display="ramesh@aiobtech.com"/>
+    <hyperlink ref="F4" r:id="rId3" display="dhananjai.agarwal@spicecare.com"/>
+    <hyperlink ref="F5" r:id="rId4" display="finance@heybee.org"/>
+    <hyperlink ref="F6" r:id="rId5" display="richa.prasad@medanta.org" tooltip="mailto:richa.prasad@medanta.org"/>
+    <hyperlink ref="F7" r:id="rId6" display="rajeevroy@xlri.ac.in" tooltip="mailto:rajeevroy@xlri.ac.in"/>
+    <hyperlink ref="G7" r:id="rId7" display="www.xceedxlri.com"/>
+    <hyperlink ref="F8" r:id="rId8" display="ask@drshikha.com"/>
+    <hyperlink ref="G8" r:id="rId9" display="www.drshikhasharma.com"/>
+    <hyperlink ref="F9" r:id="rId10" display="pratyush.goel@asianhealthcarefund.com"/>
+    <hyperlink ref="G9" r:id="rId11" display="www.asianhealthcarefund.com"/>
+    <hyperlink ref="F10" r:id="rId12" display="Aashirawat@bloodpart.in"/>
+    <hyperlink ref="G10" r:id="rId13" display="www.bloodport.in"/>
+    <hyperlink ref="F11" r:id="rId14" display="vasuman.shastri@neosofttech.com"/>
+    <hyperlink ref="G11" r:id="rId15" display="www.neosofttech.com"/>
+    <hyperlink ref="F12" r:id="rId16" display="avinash@mentdoc.com"/>
+    <hyperlink ref="G12" r:id="rId17" display="www.mentdoc.in"/>
+    <hyperlink ref="F13" r:id="rId18" display="marketing@samfordhospital.com"/>
+    <hyperlink ref="F14" r:id="rId19" display="info@alamhospital.in"/>
+    <hyperlink ref="G14" r:id="rId20" display="www.alamhospital.in"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
